--- a/biology/Zoologie/Charinus_potiguar/Charinus_potiguar.xlsx
+++ b/biology/Zoologie/Charinus_potiguar/Charinus_potiguar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus potiguar est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Norte au Brésil[1]. Elle se rencontre dans des grottes à Felipe Guerra, Baraúna et Governador Dix-Sept Rosado.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Norte au Brésil. Elle se rencontre dans des grottes à Felipe Guerra, Baraúna et Governador Dix-Sept Rosado.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charinus potiguar mesure de 6,27 à 13,73 mm[2].
-La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 4,40 mm de long sur 6,00 mm et celle de la femelle 4,50 mm de long sur 5,76 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charinus potiguar mesure de 6,27 à 13,73 mm.
+La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 4,40 mm de long sur 6,00 mm et celle de la femelle 4,50 mm de long sur 5,76 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vasconcelos, Giupponi &amp; Ferreira, 2013 : « A new species of Charinus Simon, 1892 from northeastern Brazil with comments on the potential distribution of the genus in Central and South Americas (Arachnida: Amblypygi: Charinidae). » Zootaxa, no 3737 (4), p. 488–500.</t>
         </is>
